--- a/simulations/raw_inclusion_exclusion/Nelson_2002 IEC/output/tables/metrics/metrics_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Nelson_2002 IEC/output/tables/metrics/metrics_sim.xlsx
@@ -713,31 +713,31 @@
         <v>36</v>
       </c>
       <c r="C3">
-        <v>0.2125</v>
+        <v>0.225</v>
       </c>
       <c r="D3">
-        <v>0.5875</v>
+        <v>0.575</v>
       </c>
       <c r="E3">
-        <v>0.925</v>
+        <v>0.9125</v>
       </c>
       <c r="F3">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0.3633879781420765</v>
+        <v>0.366120218579235</v>
       </c>
       <c r="I3">
-        <v>0.1624125874125874</v>
+        <v>0.1633304195804196</v>
       </c>
       <c r="J3">
-        <v>0.1125</v>
+        <v>0.125</v>
       </c>
       <c r="K3">
-        <v>86.95</v>
+        <v>87.21250000000001</v>
       </c>
       <c r="L3">
         <v>8</v>
@@ -764,10 +764,10 @@
         <v>34</v>
       </c>
       <c r="T3">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="U3">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="V3">
         <v>278</v>
@@ -779,10 +779,10 @@
         <v>252</v>
       </c>
       <c r="Y3">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Z3">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AA3">
         <v>72</v>
@@ -809,10 +809,10 @@
         <v>0.881119</v>
       </c>
       <c r="AI3">
-        <v>0.814685</v>
+        <v>0.821678</v>
       </c>
       <c r="AJ3">
-        <v>0.63986</v>
+        <v>0.678322</v>
       </c>
     </row>
   </sheetData>
